--- a/medicine/Pharmacie/Récepteur_du_glucagon-like_peptide-1/Récepteur_du_glucagon-like_peptide-1.xlsx
+++ b/medicine/Pharmacie/Récepteur_du_glucagon-like_peptide-1/Récepteur_du_glucagon-like_peptide-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_du_glucagon-like_peptide-1</t>
+          <t>Récepteur_du_glucagon-like_peptide-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le récepteur du glucagon-like peptide-1 ou GLP-1r (en anglais glucagon-like peptide 1 receptor ou GLP1R) est un récepteur membranaire, c'est-à-dire une protéine de la famille des récepteurs couplés aux protéines G[5]. Il est codé par le gène humain correspondant sur le chromosome 6[6],[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le récepteur du glucagon-like peptide-1 ou GLP-1r (en anglais glucagon-like peptide 1 receptor ou GLP1R) est un récepteur membranaire, c'est-à-dire une protéine de la famille des récepteurs couplés aux protéines G. Il est codé par le gène humain correspondant sur le chromosome 6,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_du_glucagon-like_peptide-1</t>
+          <t>Récepteur_du_glucagon-like_peptide-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Ligand spécifique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligand spécifique du GLP-1r est le glucagon-like peptide-1 (GLP-1). Le GLP-1r a beaucoup moins d'affinité pour le peptide insulinotrope dépendant du glucose et le glucagon[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligand spécifique du GLP-1r est le glucagon-like peptide-1 (GLP-1). Le GLP-1r a beaucoup moins d'affinité pour le peptide insulinotrope dépendant du glucose et le glucagon.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_du_glucagon-like_peptide-1</t>
+          <t>Récepteur_du_glucagon-like_peptide-1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Intérêt thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs molécules, agonistes de ce récepteur, sont utilisées comme médicaments dans le traitement du diabète ou sont en cours de test : exénatide, liraglutide, albiglutide, dulaglutide, lixisénatide, sémaglutide, tirzépatide et efpéglenatide.
-Le GLP-1r est exprimé dans les cellules bêta du pancréas. Le GLP-1r activé stimule la voie de l'adénylate cyclase ce qui se traduit par une augmentation de la synthèse puis de la libération d'insuline[9]. Le GLP-1r a donc été choisi comme cible potentielle pour le traitement du diabète[10].
-Le GLP-1r est également exprimé dans le cerveau où il est impliqué dans le contrôle de l'appétit[11].
-En outre, des souris qui sur-expriment ce gène montrent une amélioration des capacités de mémorisation et d'apprentissage[12].
-L'ensemble de ces propriétés permettent d'envisager l'utilisation du GLP-1r dans le traitement de la maladie de Huntington[13].
+Le GLP-1r est exprimé dans les cellules bêta du pancréas. Le GLP-1r activé stimule la voie de l'adénylate cyclase ce qui se traduit par une augmentation de la synthèse puis de la libération d'insuline. Le GLP-1r a donc été choisi comme cible potentielle pour le traitement du diabète.
+Le GLP-1r est également exprimé dans le cerveau où il est impliqué dans le contrôle de l'appétit.
+En outre, des souris qui sur-expriment ce gène montrent une amélioration des capacités de mémorisation et d'apprentissage.
+L'ensemble de ces propriétés permettent d'envisager l'utilisation du GLP-1r dans le traitement de la maladie de Huntington.
 </t>
         </is>
       </c>
